--- a/data/NurseSorted.xlsx
+++ b/data/NurseSorted.xlsx
@@ -361,10 +361,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -404,8 +404,23 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>小依</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>夏音</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -416,10 +431,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -427,7 +442,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>请勿删除此行！！！在对应条目下方填写对应的参数，注意参数不要跨年！！！否则数据不正常！！ 年为4位(2019)，月为1到2位(2或10这种)</t>
+          <t>请勿删除此行！！！在对应条目下方填写对应的参数，注意参数不要跨年！！！否则数据不正常！！ 年为4位(2019)，月为1到2位(2或10这种)，随机开关只能写(是/否)</t>
         </is>
       </c>
     </row>
@@ -440,6 +455,11 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>开始月份</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>随机开关</t>
         </is>
       </c>
     </row>
@@ -449,6 +469,11 @@
       </c>
       <c r="B4" t="n">
         <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>开</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -547,12 +572,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -562,7 +587,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -572,39 +597,39 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -616,12 +641,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,22 +656,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
@@ -658,49 +683,49 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -774,7 +799,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -784,12 +809,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -799,66 +824,66 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -868,7 +893,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -878,14 +903,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -895,22 +920,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -922,27 +947,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1006,12 +1031,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1021,66 +1046,66 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1090,12 +1115,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1105,66 +1130,66 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1243,12 +1268,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1258,7 +1283,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1268,39 +1293,39 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1312,12 +1337,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1327,22 +1352,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
@@ -1354,54 +1379,54 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1475,12 +1500,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1490,66 +1515,66 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1559,12 +1584,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1574,7 +1599,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
@@ -1586,27 +1611,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1618,17 +1643,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1702,7 +1727,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1712,12 +1737,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1727,66 +1752,66 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1796,24 +1821,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1823,49 +1848,49 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1934,7 +1959,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1944,12 +1969,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1964,39 +1989,39 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2008,17 +2033,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2028,24 +2053,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2055,44 +2080,44 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2166,12 +2191,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2181,22 +2206,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
@@ -2208,54 +2233,54 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2270,19 +2295,19 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2292,17 +2317,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2314,17 +2339,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2398,17 +2423,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2418,24 +2443,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2445,64 +2470,64 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
@@ -2514,12 +2539,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2529,39 +2554,39 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2630,17 +2655,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2650,7 +2675,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2660,14 +2685,14 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2677,22 +2702,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2704,37 +2729,37 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2771,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2761,34 +2786,34 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2862,22 +2887,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2887,24 +2912,24 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2914,49 +2939,49 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -2966,14 +2991,14 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2983,12 +3008,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2998,7 +3023,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3010,22 +3035,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3094,22 +3119,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3119,24 +3144,24 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3146,66 +3171,66 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3215,12 +3240,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3230,29 +3255,29 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">

--- a/data/NurseSorted.xlsx
+++ b/data/NurseSorted.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -442,7 +442,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>请勿删除此行！！！在对应条目下方填写对应的参数，注意参数不要跨年！！！否则数据不正常！！ 年为4位(2019)，月为1到2位(2或10这种)，随机开关只能写(是/否)</t>
+          <t>请勿删除此行！！！在对应条目下方填写对应的参数，注意参数不要跨年！！！否则数据不正常！！ 年为4位(2019)，月为1到2位(2或10这种)，随机开关只能写（开/关)</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -567,165 +566,165 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -799,180 +798,180 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1031,165 +1030,165 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1263,170 +1262,170 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1495,165 +1494,165 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1727,170 +1726,170 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1959,165 +1958,165 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2191,165 +2190,165 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2423,170 +2422,170 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2655,165 +2654,165 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2887,170 +2886,170 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3119,165 +3118,165 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>夏音</t>
+          <t>喵内</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>小花</t>
+          <t>小依</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>乃爱</t>
+          <t>日向</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>小依</t>
+          <t>小花</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>日向</t>
+          <t>乃爱</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>喵内</t>
+          <t>夏音</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
